--- a/output/percentuais_cartel_internacional.xlsx
+++ b/output/percentuais_cartel_internacional.xlsx
@@ -389,10 +389,10 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D2">
-        <v>81.57894736842105</v>
+        <v>81.08108108108108</v>
       </c>
     </row>
     <row r="3">
@@ -405,10 +405,10 @@
         <v>17</v>
       </c>
       <c r="C3">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D3">
-        <v>55.26315789473685</v>
+        <v>54.05405405405406</v>
       </c>
     </row>
     <row r="4">
@@ -421,10 +421,10 @@
         <v>24</v>
       </c>
       <c r="C4">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4">
-        <v>36.84210526315789</v>
+        <v>35.13513513513514</v>
       </c>
     </row>
     <row r="5">
@@ -434,13 +434,13 @@
         </is>
       </c>
       <c r="B5">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5">
         <v>14</v>
       </c>
       <c r="D5">
-        <v>36.84210526315789</v>
+        <v>37.83783783783784</v>
       </c>
     </row>
     <row r="6">
@@ -450,13 +450,13 @@
         </is>
       </c>
       <c r="B6">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6">
         <v>7</v>
       </c>
       <c r="D6">
-        <v>18.42105263157895</v>
+        <v>18.91891891891892</v>
       </c>
     </row>
   </sheetData>
